--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,42 +506,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,11 +617,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,11 +857,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -947,21 +947,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,11 +977,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1061,27 +1061,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1097,21 +1097,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1157,21 +1157,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1217,21 +1217,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,21 +1247,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1272,216 +1272,6 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>37</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Check map to find Recommended Zones</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4-9</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>39</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Compass data error</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>39</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Please contact DJI Support</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3-6</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>40</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4-12</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>43</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Cool down the monitor to prevent overheating</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4-10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>44</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Restart aircraft</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4-5</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>45</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0-6</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,42 +506,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,11 +617,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,11 +857,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -947,21 +947,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,11 +977,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1061,27 +1061,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1097,21 +1097,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1157,21 +1157,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1217,21 +1217,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,31 +1247,241 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Aircraft power insufficient Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Check map to find Recommended Zones</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4-9</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Compass data error</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Please contact DJI Support</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3-6</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>40</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4-12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>43</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cool down the monitor to prevent overheating</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4-10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>44</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Restart aircraft</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>4-5</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>45</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0-6</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Event</t>
         </is>
       </c>
     </row>
